--- a/src/test/resources/testdata/seller7.xlsx
+++ b/src/test/resources/testdata/seller7.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="210">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,12 +625,37 @@
   </si>
   <si>
     <t>A82CMI25Y5IEZ</t>
+  </si>
+  <si>
+    <t>30/10--0:59</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
+  </si>
+  <si>
+    <t>3/11--8:13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,12 +683,22 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -678,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -697,6 +732,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,22 +1018,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.5703125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.7109375"/>
+    <col min="3" max="17" customWidth="true" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
+      <c r="B1" s="2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,6 +1044,30 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>209</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1050,6 +1116,30 @@
       <c r="B8" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C8" t="n" s="0">
+        <v>22.4</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>22.4</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>22.4</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>22.4</v>
+      </c>
+      <c r="G8" t="n" s="0">
+        <v>22.4</v>
+      </c>
+      <c r="H8" t="n" s="0">
+        <v>22.4</v>
+      </c>
+      <c r="I8" t="n" s="0">
+        <v>22.4</v>
+      </c>
+      <c r="J8" t="n" s="0">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1066,6 +1156,30 @@
       <c r="B10" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C10" t="n" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="G10" t="n" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>23.5</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1098,6 +1212,30 @@
       <c r="B14" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C14" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="E14" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="F14" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="J14" t="n" s="0">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1122,6 +1260,30 @@
       <c r="B17" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C17" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>22.2</v>
+      </c>
+      <c r="J17" t="n" s="0">
+        <v>22.2</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -1138,6 +1300,30 @@
       <c r="B19" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C19" t="n" s="0">
+        <v>35.88</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>35.88</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>35.88</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>35.88</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>35.88</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>35.88</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>35.88</v>
+      </c>
+      <c r="J19" t="n" s="0">
+        <v>35.88</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1146,6 +1332,30 @@
       <c r="B20" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C20" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="J20" t="n" s="0">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1162,6 +1372,30 @@
       <c r="B22" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C22" t="n" s="0">
+        <v>36.65</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>36.65</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>36.65</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>36.65</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>36.65</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>36.65</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>36.65</v>
+      </c>
+      <c r="J22" t="n" s="0">
+        <v>36.65</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1178,6 +1412,30 @@
       <c r="B24" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C24" t="n" s="0">
+        <v>23.6</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>23.6</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>23.6</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>23.6</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>23.6</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>23.6</v>
+      </c>
+      <c r="I24" t="n" s="0">
+        <v>23.6</v>
+      </c>
+      <c r="J24" t="n" s="0">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -1186,6 +1444,30 @@
       <c r="B25" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C25" t="n" s="0">
+        <v>23.85</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>23.85</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>23.85</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>23.85</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>23.85</v>
+      </c>
+      <c r="H25" t="n" s="0">
+        <v>23.85</v>
+      </c>
+      <c r="I25" t="n" s="0">
+        <v>23.85</v>
+      </c>
+      <c r="J25" t="n" s="0">
+        <v>23.85</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -1194,6 +1476,30 @@
       <c r="B26" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C26" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="H26" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="I26" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="J26" t="n" s="0">
+        <v>37.0</v>
+      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -1210,6 +1516,30 @@
       <c r="B28" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C28" t="n" s="0">
+        <v>22.1</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>22.1</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>22.1</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>22.1</v>
+      </c>
+      <c r="G28" t="n" s="0">
+        <v>22.1</v>
+      </c>
+      <c r="H28" t="n" s="0">
+        <v>22.1</v>
+      </c>
+      <c r="I28" t="n" s="0">
+        <v>22.1</v>
+      </c>
+      <c r="J28" t="n" s="0">
+        <v>22.1</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1218,6 +1548,30 @@
       <c r="B29" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C29" t="n" s="0">
+        <v>23.25</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>23.25</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>23.25</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>23.25</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>23.25</v>
+      </c>
+      <c r="H29" t="n" s="0">
+        <v>23.25</v>
+      </c>
+      <c r="I29" t="n" s="0">
+        <v>23.25</v>
+      </c>
+      <c r="J29" t="n" s="0">
+        <v>23.25</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -1234,6 +1588,30 @@
       <c r="B31" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C31" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H31" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I31" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J31" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
@@ -1242,6 +1620,30 @@
       <c r="B32" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C32" t="n" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="G32" t="n" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="H32" t="n" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="I32" t="n" s="0">
+        <v>32.5</v>
+      </c>
+      <c r="J32" t="n" s="0">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -1282,6 +1684,30 @@
       <c r="B37" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C37" t="n" s="0">
+        <v>22.48</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>22.48</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>22.48</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>22.48</v>
+      </c>
+      <c r="G37" t="n" s="0">
+        <v>22.48</v>
+      </c>
+      <c r="H37" t="n" s="0">
+        <v>22.48</v>
+      </c>
+      <c r="I37" t="n" s="0">
+        <v>22.48</v>
+      </c>
+      <c r="J37" t="n" s="0">
+        <v>22.48</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1290,6 +1716,30 @@
       <c r="B38" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C38" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E38" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F38" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="G38" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="H38" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="I38" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="J38" t="n" s="0">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1298,6 +1748,30 @@
       <c r="B39" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C39" t="n" s="0">
+        <v>35.22</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>35.22</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>35.22</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>35.22</v>
+      </c>
+      <c r="G39" t="n" s="0">
+        <v>35.22</v>
+      </c>
+      <c r="H39" t="n" s="0">
+        <v>35.22</v>
+      </c>
+      <c r="I39" t="n" s="0">
+        <v>35.22</v>
+      </c>
+      <c r="J39" t="n" s="0">
+        <v>35.22</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -1346,6 +1820,30 @@
       <c r="B45" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C45" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="D45" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E45" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F45" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="G45" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="H45" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="I45" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="J45" t="n" s="0">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
@@ -1354,6 +1852,30 @@
       <c r="B46" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C46" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="D46" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="G46" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="H46" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="I46" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="J46" t="n" s="0">
+        <v>36.0</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
@@ -1386,6 +1908,30 @@
       <c r="B50" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C50" t="n" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="D50" t="n" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="E50" t="n" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="F50" t="n" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="G50" t="n" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="H50" t="n" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="I50" t="n" s="0">
+        <v>37.5</v>
+      </c>
+      <c r="J50" t="n" s="0">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
@@ -1410,6 +1956,30 @@
       <c r="B53" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C53" t="n" s="0">
+        <v>33.27</v>
+      </c>
+      <c r="D53" t="n" s="0">
+        <v>33.27</v>
+      </c>
+      <c r="E53" t="n" s="0">
+        <v>33.27</v>
+      </c>
+      <c r="F53" t="n" s="0">
+        <v>33.27</v>
+      </c>
+      <c r="G53" t="n" s="0">
+        <v>33.27</v>
+      </c>
+      <c r="H53" t="n" s="0">
+        <v>33.27</v>
+      </c>
+      <c r="I53" t="n" s="0">
+        <v>33.27</v>
+      </c>
+      <c r="J53" t="n" s="0">
+        <v>33.27</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
@@ -1434,6 +2004,30 @@
       <c r="B56" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C56" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="D56" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="E56" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="F56" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="G56" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="H56" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="I56" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="J56" t="n" s="0">
+        <v>36.99</v>
+      </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
@@ -1450,6 +2044,30 @@
       <c r="B58" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C58" t="n" s="0">
+        <v>22.45</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>22.45</v>
+      </c>
+      <c r="E58" t="n" s="0">
+        <v>22.45</v>
+      </c>
+      <c r="F58" t="n" s="0">
+        <v>22.45</v>
+      </c>
+      <c r="G58" t="n" s="0">
+        <v>22.45</v>
+      </c>
+      <c r="H58" t="n" s="0">
+        <v>22.45</v>
+      </c>
+      <c r="I58" t="n" s="0">
+        <v>22.45</v>
+      </c>
+      <c r="J58" t="n" s="0">
+        <v>22.45</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
@@ -1466,6 +2084,30 @@
       <c r="B60" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C60" t="n" s="0">
+        <v>33.25</v>
+      </c>
+      <c r="D60" t="n" s="0">
+        <v>33.25</v>
+      </c>
+      <c r="E60" t="n" s="0">
+        <v>33.25</v>
+      </c>
+      <c r="F60" t="n" s="0">
+        <v>33.25</v>
+      </c>
+      <c r="G60" t="n" s="0">
+        <v>33.25</v>
+      </c>
+      <c r="H60" t="n" s="0">
+        <v>33.25</v>
+      </c>
+      <c r="I60" t="n" s="0">
+        <v>33.25</v>
+      </c>
+      <c r="J60" t="n" s="0">
+        <v>33.25</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
@@ -1498,6 +2140,30 @@
       <c r="B64" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C64" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="E64" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="F64" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="G64" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="H64" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="I64" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="J64" t="n" s="0">
+        <v>22.98</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -1506,6 +2172,30 @@
       <c r="B65" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C65" t="n" s="0">
+        <v>36.85</v>
+      </c>
+      <c r="D65" t="n" s="0">
+        <v>36.85</v>
+      </c>
+      <c r="E65" t="n" s="0">
+        <v>36.85</v>
+      </c>
+      <c r="F65" t="n" s="10">
+        <v>34.5</v>
+      </c>
+      <c r="G65" t="n" s="0">
+        <v>34.5</v>
+      </c>
+      <c r="H65" t="n" s="0">
+        <v>34.5</v>
+      </c>
+      <c r="I65" t="n" s="0">
+        <v>34.5</v>
+      </c>
+      <c r="J65" t="n" s="0">
+        <v>34.5</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
@@ -1538,6 +2228,21 @@
       <c r="B69" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="F69" t="n" s="0">
+        <v>20.5</v>
+      </c>
+      <c r="G69" t="n" s="0">
+        <v>20.5</v>
+      </c>
+      <c r="H69" t="n" s="0">
+        <v>20.5</v>
+      </c>
+      <c r="I69" t="n" s="0">
+        <v>20.5</v>
+      </c>
+      <c r="J69" t="n" s="0">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
@@ -1570,6 +2275,30 @@
       <c r="B73" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C73" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D73" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E73" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F73" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G73" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H73" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I73" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J73" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -1586,6 +2315,30 @@
       <c r="B75" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C75" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="D75" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="E75" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="F75" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="G75" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="H75" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="I75" t="n" s="0">
+        <v>33.5</v>
+      </c>
+      <c r="J75" t="n" s="0">
+        <v>33.5</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
@@ -1610,6 +2363,30 @@
       <c r="B78" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C78" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="D78" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="E78" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="F78" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="G78" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="H78" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="I78" t="n" s="0">
+        <v>21.95</v>
+      </c>
+      <c r="J78" t="n" s="0">
+        <v>21.95</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
@@ -1626,6 +2403,30 @@
       <c r="B80" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C80" t="n" s="0">
+        <v>35.01</v>
+      </c>
+      <c r="D80" t="n" s="0">
+        <v>35.01</v>
+      </c>
+      <c r="E80" t="n" s="0">
+        <v>35.01</v>
+      </c>
+      <c r="F80" t="n" s="0">
+        <v>35.01</v>
+      </c>
+      <c r="G80" t="n" s="0">
+        <v>35.01</v>
+      </c>
+      <c r="H80" t="n" s="0">
+        <v>35.01</v>
+      </c>
+      <c r="I80" t="n" s="0">
+        <v>35.01</v>
+      </c>
+      <c r="J80" t="n" s="0">
+        <v>35.01</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
@@ -1674,6 +2475,30 @@
       <c r="B86" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C86" t="n" s="0">
+        <v>23.05</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>23.05</v>
+      </c>
+      <c r="E86" t="n" s="0">
+        <v>23.05</v>
+      </c>
+      <c r="F86" t="n" s="0">
+        <v>23.05</v>
+      </c>
+      <c r="G86" t="n" s="0">
+        <v>23.05</v>
+      </c>
+      <c r="H86" t="n" s="0">
+        <v>23.05</v>
+      </c>
+      <c r="I86" t="n" s="0">
+        <v>23.05</v>
+      </c>
+      <c r="J86" t="n" s="0">
+        <v>23.05</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -1706,6 +2531,30 @@
       <c r="B90" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="D90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="E90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="F90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="G90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="H90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="I90" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="J90" t="n" s="0">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
@@ -1738,6 +2587,30 @@
       <c r="B94" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C94" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="D94" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="E94" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="G94" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="H94" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="I94" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="J94" t="n" s="0">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -1770,6 +2643,30 @@
       <c r="B98" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C98" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="D98" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="E98" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="F98" t="n" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="G98" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H98" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I98" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J98" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -1906,6 +2803,30 @@
       <c r="B115" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C115" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="D115" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="E115" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="F115" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="G115" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="H115" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="I115" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="J115" t="n" s="0">
+        <v>22.0</v>
+      </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
@@ -1922,6 +2843,30 @@
       <c r="B117" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C117" t="n" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="D117" t="n" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="E117" t="n" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="F117" t="n" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="G117" t="n" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="H117" t="n" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="I117" t="n" s="0">
+        <v>21.5</v>
+      </c>
+      <c r="J117" t="n" s="0">
+        <v>21.5</v>
+      </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
@@ -2002,6 +2947,30 @@
       <c r="B127" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C127" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="D127" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="E127" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="F127" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="G127" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="H127" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="I127" t="n" s="0">
+        <v>36.99</v>
+      </c>
+      <c r="J127" t="n" s="0">
+        <v>36.99</v>
+      </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
@@ -2018,6 +2987,30 @@
       <c r="B129" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C129" t="n" s="0">
+        <v>22.95</v>
+      </c>
+      <c r="D129" t="n" s="0">
+        <v>22.95</v>
+      </c>
+      <c r="E129" t="n" s="0">
+        <v>22.95</v>
+      </c>
+      <c r="F129" t="n" s="0">
+        <v>22.95</v>
+      </c>
+      <c r="G129" t="n" s="0">
+        <v>22.95</v>
+      </c>
+      <c r="H129" t="n" s="0">
+        <v>22.95</v>
+      </c>
+      <c r="I129" t="n" s="0">
+        <v>22.95</v>
+      </c>
+      <c r="J129" t="n" s="0">
+        <v>22.95</v>
+      </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
@@ -2034,6 +3027,30 @@
       <c r="B131" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C131" t="n" s="0">
+        <v>32.85</v>
+      </c>
+      <c r="D131" t="n" s="0">
+        <v>32.85</v>
+      </c>
+      <c r="E131" t="n" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="F131" t="n" s="12">
+        <v>31.0</v>
+      </c>
+      <c r="G131" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="H131" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="I131" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="J131" t="n" s="0">
+        <v>31.0</v>
+      </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
@@ -2074,6 +3091,30 @@
       <c r="B136" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C136" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="D136" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="E136" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="F136" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="G136" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="H136" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="I136" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="J136" t="n" s="0">
+        <v>34.0</v>
+      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
@@ -2082,6 +3123,30 @@
       <c r="B137" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C137" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="D137" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="E137" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="F137" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="G137" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="H137" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="I137" t="n" s="0">
+        <v>22.5</v>
+      </c>
+      <c r="J137" t="n" s="0">
+        <v>22.5</v>
+      </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
@@ -2178,6 +3243,30 @@
       <c r="B149" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C149" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="D149" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="E149" t="n" s="9">
+        <v>20.01</v>
+      </c>
+      <c r="F149" t="n" s="13">
+        <v>20.0</v>
+      </c>
+      <c r="G149" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="H149" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="I149" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J149" t="n" s="0">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
@@ -2186,6 +3275,30 @@
       <c r="B150" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C150" t="n" s="0">
+        <v>18.55</v>
+      </c>
+      <c r="D150" t="n" s="0">
+        <v>18.55</v>
+      </c>
+      <c r="E150" t="n" s="0">
+        <v>18.55</v>
+      </c>
+      <c r="F150" t="n" s="0">
+        <v>18.55</v>
+      </c>
+      <c r="G150" t="n" s="0">
+        <v>18.55</v>
+      </c>
+      <c r="H150" t="n" s="0">
+        <v>18.55</v>
+      </c>
+      <c r="I150" t="n" s="0">
+        <v>18.55</v>
+      </c>
+      <c r="J150" t="n" s="0">
+        <v>18.55</v>
+      </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
@@ -2349,7 +3462,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>201</v>
@@ -2357,23 +3470,23 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>201</v>
@@ -2381,7 +3494,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>201</v>
@@ -2389,7 +3502,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>201</v>
@@ -2397,7 +3510,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>201</v>
@@ -2405,7 +3518,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>201</v>
@@ -2413,7 +3526,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>201</v>
@@ -2421,7 +3534,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>201</v>
@@ -2429,7 +3542,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>201</v>
@@ -2437,15 +3550,15 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>201</v>
@@ -2453,23 +3566,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>201</v>
@@ -2477,15 +3590,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>201</v>
@@ -2493,7 +3606,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>201</v>
@@ -2501,7 +3614,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>201</v>
@@ -2509,7 +3622,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>201</v>
@@ -2517,23 +3630,23 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>201</v>
@@ -2541,7 +3654,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>201</v>
@@ -2549,7 +3662,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>201</v>
@@ -2557,23 +3670,23 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>201</v>
@@ -2581,17 +3694,9 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="7" t="s">
         <v>201</v>
       </c>
     </row>
